--- a/data/trans_camb/P32C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.275857146941762</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.144695595435927</v>
+        <v>1.144695595435926</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-1.859597034905713</v>
@@ -655,7 +655,7 @@
         <v>-1.051181681387373</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.6745914480925536</v>
+        <v>-0.6745914480925539</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.9493129220527901</v>
@@ -664,7 +664,7 @@
         <v>0.6150916969847385</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.7569813854520803</v>
+        <v>0.7569813854520799</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.384777970997989</v>
+        <v>-2.403043030463443</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8553756182073985</v>
+        <v>-0.8587040905382256</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.219955225600931</v>
+        <v>-0.9658364127566885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.811430345763735</v>
+        <v>-6.541134417416786</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.734708296708097</v>
+        <v>-5.54033512465957</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.58484652508404</v>
+        <v>-4.586398671729071</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.476177730470726</v>
+        <v>-2.530003451180184</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.383193682095116</v>
+        <v>-1.308183440426585</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.315966253923889</v>
+        <v>-1.162642032983916</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.206563283909747</v>
+        <v>1.16581262322337</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.019248939322195</v>
+        <v>4.121061523389645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.876965982830226</v>
+        <v>3.820556030554181</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8167327327060251</v>
+        <v>0.8241602906629468</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.789235905204732</v>
+        <v>1.886710125035795</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3977276253454879</v>
+        <v>0.4112440522684964</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.819525407512787</v>
+        <v>2.625354396503961</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.857322665491692</v>
+        <v>2.876901717904036</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.5270613509717069</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.472878024336812</v>
+        <v>0.4728780243368117</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-1</v>
@@ -760,7 +760,7 @@
         <v>-0.5652739070110804</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3627621659048071</v>
+        <v>-0.3627621659048073</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.41755953535917</v>
@@ -769,7 +769,7 @@
         <v>0.2705508344296491</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3329616486220487</v>
+        <v>0.3329616486220485</v>
       </c>
     </row>
     <row r="8">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7087319359177959</v>
+        <v>-0.7080624797994524</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3281919006185056</v>
+        <v>-0.3287146495292582</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4061435232955988</v>
+        <v>-0.3548980539008945</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.7798948377174776</v>
+        <v>-0.7674142188757302</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4968066186507861</v>
+        <v>-0.4358770379898719</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4371534911450852</v>
+        <v>-0.4308391057473103</v>
       </c>
     </row>
     <row r="9">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8588635705304988</v>
+        <v>0.9509387937833833</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.574482753397016</v>
+        <v>2.515753884657386</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.432752049691658</v>
+        <v>2.80068785445442</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>0.3895341511876163</v>
+        <v>0.3923598746373729</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.883861569566373</v>
+        <v>1.802272462659851</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.884310846438874</v>
+        <v>1.975999832759052</v>
       </c>
     </row>
     <row r="10">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8023634221067669</v>
+        <v>-0.8697053586271745</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.456852398092394</v>
+        <v>-1.458639976762599</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.982637599339504</v>
+        <v>-2.019248839071859</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.328521974658048</v>
+        <v>-1.321741726544928</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.135460687178239</v>
+        <v>-1.243497120000594</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.42599016846578</v>
+        <v>-0.2780990832103316</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.607944892246736</v>
+        <v>-0.6284749343820127</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.125076066427914</v>
+        <v>-1.142336611179517</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.081789682496699</v>
+        <v>-1.002611286600901</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.446092189033482</v>
+        <v>1.431565824778682</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5412800131259714</v>
+        <v>0.6507626523738933</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.08911059246201497</v>
+        <v>-0.08751251314362092</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4944397316226222</v>
+        <v>0.6561100619315293</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7230740355374505</v>
+        <v>0.629873350397977</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.880106014724646</v>
+        <v>2.972036079781818</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.028127659199023</v>
+        <v>0.9056562578180827</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3455984205349094</v>
+        <v>0.3303269583985765</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6342397730033472</v>
+        <v>0.629616841315325</v>
       </c>
     </row>
     <row r="13">
@@ -962,7 +962,7 @@
         <v>-0.2274680964818067</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.397114654912454</v>
+        <v>1.397114654912455</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1137102827017866</v>
@@ -982,29 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3723277078627464</v>
+        <v>-0.4062739103692112</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6645108131249857</v>
+        <v>-0.6476152016446347</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8524255476997837</v>
-      </c>
-      <c r="F14" s="6" t="inlineStr"/>
+        <v>-0.862931472696151</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8755167936728354</v>
+        <v>-0.9100525958293587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4919442647452156</v>
+        <v>-0.4712094489724738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3757939459567967</v>
+        <v>-0.3729000744641771</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6244111480065908</v>
+        <v>-0.6134390170376272</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5906873091678453</v>
+        <v>-0.5807684076756875</v>
       </c>
     </row>
     <row r="15">
@@ -1015,29 +1017,33 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.44041919856953</v>
+        <v>1.399295720420801</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5826679439056808</v>
+        <v>0.7204503710091428</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.009304457405053802</v>
-      </c>
-      <c r="F15" s="6" t="inlineStr"/>
+        <v>0.04731332138779593</v>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
       <c r="G15" s="6" t="n">
-        <v>4.482229093840766</v>
+        <v>2.922981724454456</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10.17430487397054</v>
+        <v>10.09993454731037</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.179034286025783</v>
+        <v>0.9964545561597992</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4051631969134031</v>
+        <v>0.3666522739347542</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6922950164647521</v>
+        <v>0.8706947285209968</v>
       </c>
     </row>
     <row r="16">
@@ -1058,7 +1064,7 @@
         <v>-0.9005559842448304</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.9754301961459525</v>
+        <v>-0.9754301961459523</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.5242108809725906</v>
@@ -1087,31 +1093,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.024494529597398</v>
+        <v>-1.866164606764458</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.973387483647062</v>
+        <v>-2.797216207516682</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.849409760759825</v>
+        <v>-2.806670779112454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.875781964112207</v>
+        <v>-2.618116186883277</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.122172262688208</v>
+        <v>-1.798803398910849</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.322045351400082</v>
+        <v>-2.431512131089212</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.604943518497296</v>
+        <v>-1.648848912707447</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.098524352876424</v>
+        <v>-2.130044280693502</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.179040807117023</v>
+        <v>-2.230121892767562</v>
       </c>
     </row>
     <row r="18">
@@ -1122,31 +1128,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.938333988201883</v>
+        <v>3.13561370846215</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7029518124277837</v>
+        <v>0.7210052761861122</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7593123343841263</v>
+        <v>0.7018338264145377</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6642962127156968</v>
+        <v>0.66038087634319</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4016414815089691</v>
+        <v>0.3994530971926643</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.764579138485119</v>
+        <v>1.586280314007433</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3976092903390582</v>
+        <v>0.3899961392664571</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1666680454467658</v>
+        <v>0.1753893322045118</v>
       </c>
     </row>
     <row r="19">
@@ -1163,7 +1169,7 @@
         <v>-0.4581923019033107</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4962874210345657</v>
+        <v>-0.4962874210345656</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-1</v>
@@ -1192,25 +1198,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7593761021048245</v>
+        <v>-0.7594242963419295</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.914875428666612</v>
+        <v>-0.8898517916083273</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8921476421830413</v>
+        <v>-0.9047512262647543</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.7869666984454478</v>
+        <v>-0.8171522218618874</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8805895127039696</v>
+        <v>-0.8834348324442296</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8869871522128641</v>
+        <v>-0.9069986636836981</v>
       </c>
     </row>
     <row r="21">
@@ -1221,25 +1227,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.257946188014214</v>
+        <v>3.081311423251391</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9694415351024478</v>
+        <v>1.344533262874412</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.088295499352691</v>
+        <v>1.171236788794488</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>2.487903708799944</v>
+        <v>2.276090962776119</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7796310873377802</v>
+        <v>0.8239899400317325</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5028512903662848</v>
+        <v>0.5815548759689699</v>
       </c>
     </row>
     <row r="22">
@@ -1260,7 +1266,7 @@
         <v>-0.2536554905195862</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.6867004024106919</v>
+        <v>-0.6867004024106921</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.6224639335560446</v>
@@ -1269,7 +1275,7 @@
         <v>-0.3639838569949088</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3706297170169185</v>
+        <v>0.3706297170169183</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.1617512412719176</v>
@@ -1289,31 +1295,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8250444163715757</v>
+        <v>-0.7076732597703181</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.10104566046228</v>
+        <v>-1.15550913257147</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.611998098157824</v>
+        <v>-1.563304217953476</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.538102195668321</v>
+        <v>-1.497589316134516</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.259801142164084</v>
+        <v>-1.391564389399946</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.7237906893643101</v>
+        <v>-0.6816826218195825</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.832191624501992</v>
+        <v>-0.8367722398756056</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.9809250295638087</v>
+        <v>-1.047330338416275</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.043861192559685</v>
+        <v>-1.036085248480924</v>
       </c>
     </row>
     <row r="24">
@@ -1324,31 +1330,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9648212791961599</v>
+        <v>1.084685687798419</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5275314186784429</v>
+        <v>0.6236480202739787</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.01922251930331485</v>
+        <v>0.07029592421965081</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0128215125544342</v>
+        <v>0.0152507443209115</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.361888208454539</v>
+        <v>0.3481970661199007</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.615885240112153</v>
+        <v>1.493249441181261</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4460157308956609</v>
+        <v>0.4528611792975137</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1967966547446783</v>
+        <v>0.2432843368155789</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2785423068704704</v>
+        <v>0.2672670858076437</v>
       </c>
     </row>
     <row r="25">
@@ -1365,7 +1371,7 @@
         <v>-0.1352298165972307</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3660964297875977</v>
+        <v>-0.3660964297875978</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.6807230235670996</v>
@@ -1374,7 +1380,7 @@
         <v>-0.3980506794147946</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4053185542015975</v>
+        <v>0.4053185542015973</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1033041181979267</v>
@@ -1394,31 +1400,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3481531356310638</v>
+        <v>-0.3045881894902893</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4829881795809934</v>
+        <v>-0.4926413676713993</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6558653229409158</v>
+        <v>-0.6433939673969359</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.9349545146906074</v>
+        <v>-1</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8335340462172146</v>
+        <v>-0.8533309098622922</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5766518100263894</v>
+        <v>-0.5535922403940999</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4187644268512434</v>
+        <v>-0.4274125374444311</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4994981374036695</v>
+        <v>-0.5139138222386049</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5243662875012924</v>
+        <v>-0.5326588624887759</v>
       </c>
     </row>
     <row r="27">
@@ -1429,31 +1435,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6478378686380277</v>
+        <v>0.7636366204892914</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3635757331560703</v>
+        <v>0.4370030750365136</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.0006175040537150895</v>
+        <v>0.08053435178314604</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4942680955437116</v>
+        <v>0.3296846138147117</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.105277871261653</v>
+        <v>0.8919522492992756</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.340947132458601</v>
+        <v>3.047196004508478</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3729789697034813</v>
+        <v>0.3695709572315228</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1732453045620071</v>
+        <v>0.2087595522999317</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2408074908230901</v>
+        <v>0.2305123893166851</v>
       </c>
     </row>
     <row r="28">
